--- a/华工步行街/数据字典.xlsx
+++ b/华工步行街/数据字典.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\college\third_year\first_semester\数据库大作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_workspace\DatabaseHomework\华工步行街\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="639" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="639"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
     <sheet name="主题" sheetId="2" r:id="rId2"/>
-    <sheet name="回复" sheetId="3" r:id="rId3"/>
-    <sheet name="论坛" sheetId="4" r:id="rId4"/>
+    <sheet name="论坛" sheetId="4" r:id="rId3"/>
+    <sheet name="回复" sheetId="3" r:id="rId4"/>
     <sheet name="关注" sheetId="6" r:id="rId5"/>
     <sheet name="收藏" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1370,152 +1370,6 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1659,11 +1513,157 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/华工步行街/数据字典.xlsx
+++ b/华工步行街/数据字典.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="639"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="639" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" r:id="rId1"/>
     <sheet name="主题" sheetId="2" r:id="rId2"/>
-    <sheet name="论坛" sheetId="4" r:id="rId3"/>
-    <sheet name="回复" sheetId="3" r:id="rId4"/>
-    <sheet name="关注" sheetId="6" r:id="rId5"/>
-    <sheet name="收藏" sheetId="7" r:id="rId6"/>
+    <sheet name="回复" sheetId="3" r:id="rId3"/>
+    <sheet name="版块" sheetId="4" r:id="rId4"/>
+    <sheet name="收藏" sheetId="7" r:id="rId5"/>
+    <sheet name="关注" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>属性名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,163 +107,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zc_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gz_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gg_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true表示置顶，false表示不置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bk_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yd_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lc_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注的用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fb_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近回复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题的总回复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少用户收藏这个主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏多少个主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日主题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jrzt_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日主题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zrzt_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个版块主题总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块数据字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被关注数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bgz_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>图片地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pw_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zc_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发帖数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ft_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ht_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gz_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fs_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以作为唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以作为唯一标识，生成链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发帖时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ft_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gg_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度暂定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：活动区；1：问题区；2：话题区；长度暂定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回帖时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ht_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回帖时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ht_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置顶</t>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zjhf_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近回复人标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zjhfr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用用户表的Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,267 +447,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true表示置顶，false表示不置顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dz_sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数区分精华帖和普通贴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回帖数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回帖人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Htr_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bk_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子所属的版块；引用版块表的Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版块类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发帖人编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ftr_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表的Pw_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表Pw_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日发帖数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jrft_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨日发帖数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zrft_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tz_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个版块帖子总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yd_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新回帖人；引用用户表的Pw_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼层编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lc_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与帖子表中的回帖数有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ht_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帖子编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用帖子表中的帖子编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hf_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回帖数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注的用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏帖子数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉丝编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fs_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用用户表的Pw_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶像编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ox_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yh_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用帖子表的Tz_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论坛数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gly_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示用户和管理员等</t>
+    <t>点赞数区分精华主题和普通主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题所属的版块；引用版块表的Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fbr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用用户表的Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fb_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfr_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与主题的回复数有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用主题表的主题标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表主题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员设置主题是否合法；默认合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分普通用户和管理员；区分管理员负责的版块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：活动区；-1：问题区；-2：话题区；结合用户表的Rank区分每个版块的管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yh_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用主题表的Zt_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fs_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶像标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ox_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +572,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -578,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,6 +627,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,15 +913,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,27 +952,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -950,69 +981,69 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>10</v>
@@ -1020,27 +1051,30 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -1048,30 +1082,30 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
@@ -1079,36 +1113,36 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1123,15 +1157,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="37.375" customWidth="1"/>
@@ -1139,7 +1173,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1165,61 +1199,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>97</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -1227,132 +1258,166 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5">
         <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D9" s="5">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1432,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1378,12 +1604,12 @@
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="16.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1409,64 +1635,58 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>50</v>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
@@ -1474,33 +1694,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>86</v>
+      <c r="E7" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1513,169 +1719,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1684,7 +1744,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1701,36 +1761,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1746,19 +1806,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1767,7 +1827,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1784,36 +1844,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
